--- a/Outputs/Fish/Trophic/FINAL_Trophic_biomass_site.xlsx
+++ b/Outputs/Fish/Trophic/FINAL_Trophic_biomass_site.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\Trophic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C6B32B-6BAE-496C-A6C8-A44387FD4E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1794CC92-91C3-4DE5-8BBC-9595FEB5ED0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -31,592 +31,598 @@
     <t>Fish Bowl</t>
   </si>
   <si>
-    <t>9.09009379497001</t>
-  </si>
-  <si>
-    <t>5.59681055184405</t>
-  </si>
-  <si>
-    <t>1.56881507550064</t>
-  </si>
-  <si>
-    <t>9.23052978889376</t>
+    <t>3030.03126499</t>
+  </si>
+  <si>
+    <t>1865.60351728135</t>
+  </si>
+  <si>
+    <t>522.938358500212</t>
+  </si>
+  <si>
+    <t>3076.84326296459</t>
   </si>
   <si>
     <t>Frenchman Reef</t>
   </si>
   <si>
-    <t>10.9404372409183</t>
-  </si>
-  <si>
-    <t>13.925223891435</t>
-  </si>
-  <si>
-    <t>1.24368729267675</t>
-  </si>
-  <si>
-    <t>4.67912912699003</t>
+    <t>3646.81241363943</t>
+  </si>
+  <si>
+    <t>4641.74129714501</t>
+  </si>
+  <si>
+    <t>414.562430892252</t>
+  </si>
+  <si>
+    <t>1559.70970899668</t>
   </si>
   <si>
     <t>Long Bay Reef</t>
   </si>
   <si>
-    <t>7.58898246581809</t>
-  </si>
-  <si>
-    <t>1.45470075506083</t>
-  </si>
-  <si>
-    <t>2.88361287499933</t>
-  </si>
-  <si>
-    <t>0.560895381184692</t>
+    <t>2529.66082193936</t>
+  </si>
+  <si>
+    <t>484.900251686944</t>
+  </si>
+  <si>
+    <t>961.204291666445</t>
+  </si>
+  <si>
+    <t>186.965127061564</t>
   </si>
   <si>
     <t>Mikes Mazes</t>
   </si>
   <si>
-    <t>19.6363257187032</t>
-  </si>
-  <si>
-    <t>3.43282695206278</t>
-  </si>
-  <si>
-    <t>0.705363584196003</t>
-  </si>
-  <si>
-    <t>1.6508635201803</t>
+    <t>6545.4419062344</t>
+  </si>
+  <si>
+    <t>1144.27565068759</t>
+  </si>
+  <si>
+    <t>235.121194732001</t>
+  </si>
+  <si>
+    <t>550.2878400601</t>
   </si>
   <si>
     <t>Moonscape</t>
   </si>
   <si>
-    <t>6.445338881381</t>
-  </si>
-  <si>
-    <t>7.57094789023081</t>
-  </si>
-  <si>
-    <t>6.5694951270993</t>
-  </si>
-  <si>
-    <t>7.05467561268503</t>
+    <t>2148.44629379367</t>
+  </si>
+  <si>
+    <t>2523.6492967436</t>
+  </si>
+  <si>
+    <t>2189.8317090331</t>
+  </si>
+  <si>
+    <t>2351.55853756168</t>
   </si>
   <si>
     <t>Proselyte Reef</t>
   </si>
   <si>
-    <t>11.5598578691812</t>
-  </si>
-  <si>
-    <t>0.99001772283412</t>
-  </si>
-  <si>
-    <t>1.32239111449525</t>
-  </si>
-  <si>
-    <t>1.56087960849381</t>
+    <t>3853.28595639374</t>
+  </si>
+  <si>
+    <t>330.005907611373</t>
+  </si>
+  <si>
+    <t>440.797038165085</t>
+  </si>
+  <si>
+    <t>520.29320283127</t>
   </si>
   <si>
     <t>Shark Hotel</t>
   </si>
   <si>
-    <t>5.97496178552383</t>
-  </si>
-  <si>
-    <t>1.38126902660321</t>
-  </si>
-  <si>
-    <t>0.712620449642203</t>
-  </si>
-  <si>
-    <t>12.4536992854432</t>
-  </si>
-  <si>
-    <t>3.65522748800403</t>
-  </si>
-  <si>
-    <t>4.46702959071528</t>
-  </si>
-  <si>
-    <t>67.8889783162712</t>
-  </si>
-  <si>
-    <t>1.66210686286457</t>
-  </si>
-  <si>
-    <t>14.9992682563444</t>
-  </si>
-  <si>
-    <t>1.30330177496203</t>
-  </si>
-  <si>
-    <t>9.63984765100065</t>
-  </si>
-  <si>
-    <t>1.10640430288291</t>
-  </si>
-  <si>
-    <t>3.61669475983587</t>
-  </si>
-  <si>
-    <t>0.012307429532384</t>
-  </si>
-  <si>
-    <t>1.30417067489918</t>
-  </si>
-  <si>
-    <t>6.89655165650688</t>
-  </si>
-  <si>
-    <t>14.9161741477522</t>
-  </si>
-  <si>
-    <t>6.54317334719993</t>
-  </si>
-  <si>
-    <t>14.324785653285</t>
-  </si>
-  <si>
-    <t>5.65502524224185</t>
-  </si>
-  <si>
-    <t>101.519977590007</t>
-  </si>
-  <si>
-    <t>1.17267486663888</t>
-  </si>
-  <si>
-    <t>9.10242148204769</t>
-  </si>
-  <si>
-    <t>15.3124133719101</t>
-  </si>
-  <si>
-    <t>21.3114397878255</t>
-  </si>
-  <si>
-    <t>3.2579505566827</t>
-  </si>
-  <si>
-    <t>119.460047219971</t>
-  </si>
-  <si>
-    <t>2.40565357788412</t>
-  </si>
-  <si>
-    <t>4.89113221028886</t>
-  </si>
-  <si>
-    <t>0.0983315011008601</t>
-  </si>
-  <si>
-    <t>62.2655460079005</t>
-  </si>
-  <si>
-    <t>3.50847030121143</t>
-  </si>
-  <si>
-    <t>8.29769869507382</t>
-  </si>
-  <si>
-    <t>5.0980247359887</t>
-  </si>
-  <si>
-    <t>10.7753700068471</t>
-  </si>
-  <si>
-    <t>3.95000266444598</t>
-  </si>
-  <si>
-    <t>5.47661196468704</t>
-  </si>
-  <si>
-    <t>0.857236833613204</t>
-  </si>
-  <si>
-    <t>3.41192199486652</t>
-  </si>
-  <si>
-    <t>2.68903324077571</t>
-  </si>
-  <si>
-    <t>7.94819558439875</t>
-  </si>
-  <si>
-    <t>0.436129555747944</t>
-  </si>
-  <si>
-    <t>10.2466071979122</t>
-  </si>
-  <si>
-    <t>5.38571036898445</t>
-  </si>
-  <si>
-    <t>2.02126876847987</t>
-  </si>
-  <si>
-    <t>0.0181525887244945</t>
-  </si>
-  <si>
-    <t>15.9725579282786</t>
-  </si>
-  <si>
-    <t>1.96664129365507</t>
-  </si>
-  <si>
-    <t>4.24008692242684</t>
-  </si>
-  <si>
-    <t>1.57561442976655</t>
-  </si>
-  <si>
-    <t>9.56804875489081</t>
-  </si>
-  <si>
-    <t>4.37122065409133</t>
-  </si>
-  <si>
-    <t>3.33342166023798</t>
-  </si>
-  <si>
-    <t>2.89897479149181</t>
-  </si>
-  <si>
-    <t>22.8636740634687</t>
-  </si>
-  <si>
-    <t>1.47672380305066</t>
-  </si>
-  <si>
-    <t>8.39466368291279</t>
-  </si>
-  <si>
-    <t>0.513186584605421</t>
-  </si>
-  <si>
-    <t>27.3242052947875</t>
-  </si>
-  <si>
-    <t>4.67442904778608</t>
-  </si>
-  <si>
-    <t>3.94112060768961</t>
-  </si>
-  <si>
-    <t>234.036945705317</t>
-  </si>
-  <si>
-    <t>3.77231643848008</t>
-  </si>
-  <si>
-    <t>6.29929852318119</t>
-  </si>
-  <si>
-    <t>0.215141181614229</t>
-  </si>
-  <si>
-    <t>7.21133655367771</t>
-  </si>
-  <si>
-    <t>9.38267286273719</t>
-  </si>
-  <si>
-    <t>10.8434975681242</t>
-  </si>
-  <si>
-    <t>0.360661968609374</t>
-  </si>
-  <si>
-    <t>11.6367021001583</t>
-  </si>
-  <si>
-    <t>8.88525435229182</t>
-  </si>
-  <si>
-    <t>3.26192407266493</t>
-  </si>
-  <si>
-    <t>1.43864607520925</t>
-  </si>
-  <si>
-    <t>11.4430640985969</t>
-  </si>
-  <si>
-    <t>6.58725365360622</t>
-  </si>
-  <si>
-    <t>6.65941268685606</t>
-  </si>
-  <si>
-    <t>1.20415132414712</t>
-  </si>
-  <si>
-    <t>22.6923815624378</t>
-  </si>
-  <si>
-    <t>11.7054957612741</t>
-  </si>
-  <si>
-    <t>5.27303742641187</t>
-  </si>
-  <si>
-    <t>0.988315362393864</t>
-  </si>
-  <si>
-    <t>280.96790733262</t>
-  </si>
-  <si>
-    <t>5.6163953290664</t>
-  </si>
-  <si>
-    <t>3.6459512811412</t>
-  </si>
-  <si>
-    <t>22.0732590928143</t>
-  </si>
-  <si>
-    <t>2.31185510910681</t>
-  </si>
-  <si>
-    <t>8.61127565611211</t>
-  </si>
-  <si>
-    <t>10.3814685745141</t>
-  </si>
-  <si>
-    <t>3.7258664286276</t>
-  </si>
-  <si>
-    <t>51.6926400139411</t>
-  </si>
-  <si>
-    <t>16.9099505082802</t>
-  </si>
-  <si>
-    <t>10.2436766751852</t>
-  </si>
-  <si>
-    <t>2.31262547708138</t>
-  </si>
-  <si>
-    <t>49.2761092120915</t>
-  </si>
-  <si>
-    <t>11.7952475635427</t>
-  </si>
-  <si>
-    <t>9.8130885569538</t>
-  </si>
-  <si>
-    <t>2.25943138782966</t>
-  </si>
-  <si>
-    <t>50.2846725890344</t>
-  </si>
-  <si>
-    <t>15.1817768022334</t>
-  </si>
-  <si>
-    <t>14.5854829594644</t>
-  </si>
-  <si>
-    <t>4.17962476491547</t>
-  </si>
-  <si>
-    <t>133.022236286858</t>
-  </si>
-  <si>
-    <t>8.37653145087426</t>
-  </si>
-  <si>
-    <t>24.4728404601824</t>
-  </si>
-  <si>
-    <t>4.41995338574439</t>
-  </si>
-  <si>
-    <t>43.907672001378</t>
-  </si>
-  <si>
-    <t>7.04166053909348</t>
-  </si>
-  <si>
-    <t>9.66525949220363</t>
-  </si>
-  <si>
-    <t>0.611359193223433</t>
-  </si>
-  <si>
-    <t>35.9999930590222</t>
-  </si>
-  <si>
-    <t>8.9037188277208</t>
-  </si>
-  <si>
-    <t>11.6703741690644</t>
-  </si>
-  <si>
-    <t>13.7368866843845</t>
-  </si>
-  <si>
-    <t>68.3788582289209</t>
-  </si>
-  <si>
-    <t>7.95932969656442</t>
-  </si>
-  <si>
-    <t>5.63425158865041</t>
-  </si>
-  <si>
-    <t>0.920001712652776</t>
-  </si>
-  <si>
-    <t>8.67073049684577</t>
-  </si>
-  <si>
-    <t>12.5531762014207</t>
-  </si>
-  <si>
-    <t>8.15843739979759</t>
-  </si>
-  <si>
-    <t>0.687867296459844</t>
-  </si>
-  <si>
-    <t>3.44083741707559</t>
-  </si>
-  <si>
-    <t>4.98231681216995</t>
-  </si>
-  <si>
-    <t>1.73919527090492</t>
-  </si>
-  <si>
-    <t>0.617382456474362</t>
-  </si>
-  <si>
-    <t>2.56019489856382</t>
-  </si>
-  <si>
-    <t>9.11687211953646</t>
-  </si>
-  <si>
-    <t>30.2965978271204</t>
-  </si>
-  <si>
-    <t>21.2206441730669</t>
-  </si>
-  <si>
-    <t>21.5220766271515</t>
-  </si>
-  <si>
-    <t>20.8103302033762</t>
-  </si>
-  <si>
-    <t>15.3540102423229</t>
-  </si>
-  <si>
-    <t>32.2476051004839</t>
-  </si>
-  <si>
-    <t>37.1202734565957</t>
-  </si>
-  <si>
-    <t>7.0716241140843</t>
-  </si>
-  <si>
-    <t>5.25785999437179</t>
-  </si>
-  <si>
-    <t>1.06962208649781</t>
-  </si>
-  <si>
-    <t>35.3089144016019</t>
-  </si>
-  <si>
-    <t>5.81120300860282</t>
-  </si>
-  <si>
-    <t>3.87666459318177</t>
-  </si>
-  <si>
-    <t>1.53620607844167</t>
-  </si>
-  <si>
-    <t>61.1637138212251</t>
-  </si>
-  <si>
-    <t>9.89965571872669</t>
-  </si>
-  <si>
-    <t>11.1005210565779</t>
-  </si>
-  <si>
-    <t>5.13698786950832</t>
-  </si>
-  <si>
-    <t>0.277397643102091</t>
-  </si>
-  <si>
-    <t>6.42370266556216</t>
-  </si>
-  <si>
-    <t>1.59043299848871</t>
-  </si>
-  <si>
-    <t>0.617803128684398</t>
-  </si>
-  <si>
-    <t>0.332611477865875</t>
-  </si>
-  <si>
-    <t>10.4656192533773</t>
-  </si>
-  <si>
-    <t>2.20746701662339</t>
-  </si>
-  <si>
-    <t>1.02576491052169</t>
-  </si>
-  <si>
-    <t>14.1451092029752</t>
-  </si>
-  <si>
-    <t>4.15285792701898</t>
-  </si>
-  <si>
-    <t>24.9382895194867</t>
-  </si>
-  <si>
-    <t>9.73555372297359</t>
-  </si>
-  <si>
-    <t>27.6263548343996</t>
-  </si>
-  <si>
-    <t>2.73859729987809</t>
-  </si>
-  <si>
-    <t>4.34671503284743</t>
-  </si>
-  <si>
-    <t>0.934599926658895</t>
-  </si>
-  <si>
-    <t>6.64466741308395</t>
-  </si>
-  <si>
-    <t>4.49696061534228</t>
-  </si>
-  <si>
-    <t>4.21959651153789</t>
-  </si>
-  <si>
-    <t>0.151605297651961</t>
-  </si>
-  <si>
-    <t>5.3584616069035</t>
+    <t>1991.65392850794</t>
+  </si>
+  <si>
+    <t>460.423008867737</t>
+  </si>
+  <si>
+    <t>237.540149880734</t>
+  </si>
+  <si>
+    <t>4151.23309514772</t>
+  </si>
+  <si>
+    <t>1218.40916266801</t>
+  </si>
+  <si>
+    <t>1489.00986357176</t>
+  </si>
+  <si>
+    <t>22629.6594387571</t>
+  </si>
+  <si>
+    <t>554.035620954857</t>
+  </si>
+  <si>
+    <t>4999.75608544813</t>
+  </si>
+  <si>
+    <t>434.433924987344</t>
+  </si>
+  <si>
+    <t>3213.28255033355</t>
+  </si>
+  <si>
+    <t>368.801434294305</t>
+  </si>
+  <si>
+    <t>1205.56491994529</t>
+  </si>
+  <si>
+    <t>4.10247651079466</t>
+  </si>
+  <si>
+    <t>434.723558299728</t>
+  </si>
+  <si>
+    <t>2298.85055216896</t>
+  </si>
+  <si>
+    <t>4972.05804925073</t>
+  </si>
+  <si>
+    <t>2181.05778239998</t>
+  </si>
+  <si>
+    <t>4774.92855109501</t>
+  </si>
+  <si>
+    <t>1885.00841408062</t>
+  </si>
+  <si>
+    <t>33839.9925300024</t>
+  </si>
+  <si>
+    <t>390.891622212959</t>
+  </si>
+  <si>
+    <t>3034.1404940159</t>
+  </si>
+  <si>
+    <t>5104.1377906367</t>
+  </si>
+  <si>
+    <t>7103.8132626085</t>
+  </si>
+  <si>
+    <t>1085.98351889423</t>
+  </si>
+  <si>
+    <t>39820.0157399903</t>
+  </si>
+  <si>
+    <t>801.884525961373</t>
+  </si>
+  <si>
+    <t>1630.37740342962</t>
+  </si>
+  <si>
+    <t>32.77716703362</t>
+  </si>
+  <si>
+    <t>20755.1820026335</t>
+  </si>
+  <si>
+    <t>1169.49010040381</t>
+  </si>
+  <si>
+    <t>2765.89956502461</t>
+  </si>
+  <si>
+    <t>1699.3415786629</t>
+  </si>
+  <si>
+    <t>3591.79000228235</t>
+  </si>
+  <si>
+    <t>1316.66755481533</t>
+  </si>
+  <si>
+    <t>1825.53732156235</t>
+  </si>
+  <si>
+    <t>285.745611204401</t>
+  </si>
+  <si>
+    <t>1137.30733162217</t>
+  </si>
+  <si>
+    <t>896.344413591904</t>
+  </si>
+  <si>
+    <t>2649.39852813292</t>
+  </si>
+  <si>
+    <t>145.376518582648</t>
+  </si>
+  <si>
+    <t>3415.5357326374</t>
+  </si>
+  <si>
+    <t>1795.23678966148</t>
+  </si>
+  <si>
+    <t>673.756256159956</t>
+  </si>
+  <si>
+    <t>6.05086290816485</t>
+  </si>
+  <si>
+    <t>5324.18597609286</t>
+  </si>
+  <si>
+    <t>655.547097885025</t>
+  </si>
+  <si>
+    <t>1413.36230747561</t>
+  </si>
+  <si>
+    <t>525.204809922185</t>
+  </si>
+  <si>
+    <t>3189.3495849636</t>
+  </si>
+  <si>
+    <t>1457.07355136378</t>
+  </si>
+  <si>
+    <t>1111.14055341266</t>
+  </si>
+  <si>
+    <t>966.32493049727</t>
+  </si>
+  <si>
+    <t>7621.22468782289</t>
+  </si>
+  <si>
+    <t>492.241267683555</t>
+  </si>
+  <si>
+    <t>2798.2212276376</t>
+  </si>
+  <si>
+    <t>171.062194868474</t>
+  </si>
+  <si>
+    <t>9108.06843159584</t>
+  </si>
+  <si>
+    <t>1558.14301592869</t>
+  </si>
+  <si>
+    <t>1313.70686922987</t>
+  </si>
+  <si>
+    <t>78012.3152351056</t>
+  </si>
+  <si>
+    <t>1257.43881282669</t>
+  </si>
+  <si>
+    <t>2099.76617439373</t>
+  </si>
+  <si>
+    <t>71.7137272047429</t>
+  </si>
+  <si>
+    <t>2403.7788512259</t>
+  </si>
+  <si>
+    <t>3127.5576209124</t>
+  </si>
+  <si>
+    <t>3614.49918937475</t>
+  </si>
+  <si>
+    <t>120.220656203125</t>
+  </si>
+  <si>
+    <t>3878.90070005275</t>
+  </si>
+  <si>
+    <t>2961.75145076394</t>
+  </si>
+  <si>
+    <t>1087.30802422164</t>
+  </si>
+  <si>
+    <t>479.548691736417</t>
+  </si>
+  <si>
+    <t>3814.35469953229</t>
+  </si>
+  <si>
+    <t>2195.75121786874</t>
+  </si>
+  <si>
+    <t>2219.80422895202</t>
+  </si>
+  <si>
+    <t>401.383774715706</t>
+  </si>
+  <si>
+    <t>7564.12718747926</t>
+  </si>
+  <si>
+    <t>3901.83192042469</t>
+  </si>
+  <si>
+    <t>1757.67914213729</t>
+  </si>
+  <si>
+    <t>329.438454131288</t>
+  </si>
+  <si>
+    <t>93655.9691108734</t>
+  </si>
+  <si>
+    <t>1872.13177635547</t>
+  </si>
+  <si>
+    <t>1215.31709371373</t>
+  </si>
+  <si>
+    <t>7357.7530309381</t>
+  </si>
+  <si>
+    <t>770.618369702269</t>
+  </si>
+  <si>
+    <t>2870.42521870404</t>
+  </si>
+  <si>
+    <t>3460.48952483802</t>
+  </si>
+  <si>
+    <t>1241.9554762092</t>
+  </si>
+  <si>
+    <t>17230.880004647</t>
+  </si>
+  <si>
+    <t>5636.65016942675</t>
+  </si>
+  <si>
+    <t>3414.55889172839</t>
+  </si>
+  <si>
+    <t>770.875159027128</t>
+  </si>
+  <si>
+    <t>16425.3697373638</t>
+  </si>
+  <si>
+    <t>3931.74918784757</t>
+  </si>
+  <si>
+    <t>3271.0295189846</t>
+  </si>
+  <si>
+    <t>753.14379594322</t>
+  </si>
+  <si>
+    <t>16761.5575296781</t>
+  </si>
+  <si>
+    <t>5060.59226741113</t>
+  </si>
+  <si>
+    <t>4861.82765315479</t>
+  </si>
+  <si>
+    <t>1393.20825497182</t>
+  </si>
+  <si>
+    <t>44340.7454289525</t>
+  </si>
+  <si>
+    <t>2792.17715029142</t>
+  </si>
+  <si>
+    <t>8157.61348672746</t>
+  </si>
+  <si>
+    <t>1473.31779524813</t>
+  </si>
+  <si>
+    <t>14635.890667126</t>
+  </si>
+  <si>
+    <t>2347.22017969783</t>
+  </si>
+  <si>
+    <t>3221.75316406788</t>
+  </si>
+  <si>
+    <t>203.786397741144</t>
+  </si>
+  <si>
+    <t>11999.9976863407</t>
+  </si>
+  <si>
+    <t>2967.90627590693</t>
+  </si>
+  <si>
+    <t>3890.12472302145</t>
+  </si>
+  <si>
+    <t>4578.96222812815</t>
+  </si>
+  <si>
+    <t>22792.9527429736</t>
+  </si>
+  <si>
+    <t>2653.10989885481</t>
+  </si>
+  <si>
+    <t>1878.08386288347</t>
+  </si>
+  <si>
+    <t>306.667237550925</t>
+  </si>
+  <si>
+    <t>2890.24349894859</t>
+  </si>
+  <si>
+    <t>4184.39206714022</t>
+  </si>
+  <si>
+    <t>2719.47913326586</t>
+  </si>
+  <si>
+    <t>229.289098819948</t>
+  </si>
+  <si>
+    <t>1146.94580569186</t>
+  </si>
+  <si>
+    <t>1660.77227072332</t>
+  </si>
+  <si>
+    <t>579.731756968307</t>
+  </si>
+  <si>
+    <t>205.794152158121</t>
+  </si>
+  <si>
+    <t>853.398299521274</t>
+  </si>
+  <si>
+    <t>3038.95737317882</t>
+  </si>
+  <si>
+    <t>10098.8659423735</t>
+  </si>
+  <si>
+    <t>7073.54805768898</t>
+  </si>
+  <si>
+    <t>7174.02554238383</t>
+  </si>
+  <si>
+    <t>6936.77673445873</t>
+  </si>
+  <si>
+    <t>5118.00341410763</t>
+  </si>
+  <si>
+    <t>10749.2017001613</t>
+  </si>
+  <si>
+    <t>12373.4244855319</t>
+  </si>
+  <si>
+    <t>2357.2080380281</t>
+  </si>
+  <si>
+    <t>1752.61999812393</t>
+  </si>
+  <si>
+    <t>356.540695499269</t>
+  </si>
+  <si>
+    <t>11769.6381338673</t>
+  </si>
+  <si>
+    <t>1937.06766953427</t>
+  </si>
+  <si>
+    <t>1292.22153106059</t>
+  </si>
+  <si>
+    <t>512.068692813889</t>
+  </si>
+  <si>
+    <t>20387.904607075</t>
+  </si>
+  <si>
+    <t>3299.88523957556</t>
+  </si>
+  <si>
+    <t>3700.17368552597</t>
+  </si>
+  <si>
+    <t>1712.32928983611</t>
+  </si>
+  <si>
+    <t>92.4658810340305</t>
+  </si>
+  <si>
+    <t>2141.23422185405</t>
+  </si>
+  <si>
+    <t>530.14433282957</t>
+  </si>
+  <si>
+    <t>205.934376228133</t>
+  </si>
+  <si>
+    <t>110.870492621958</t>
+  </si>
+  <si>
+    <t>3488.53975112576</t>
+  </si>
+  <si>
+    <t>735.822338874463</t>
+  </si>
+  <si>
+    <t>341.921636840564</t>
+  </si>
+  <si>
+    <t>4715.03640099175</t>
+  </si>
+  <si>
+    <t>1384.28597567299</t>
+  </si>
+  <si>
+    <t>8312.76317316223</t>
+  </si>
+  <si>
+    <t>3245.18457432453</t>
+  </si>
+  <si>
+    <t>9208.78494479986</t>
+  </si>
+  <si>
+    <t>912.86576662603</t>
+  </si>
+  <si>
+    <t>1448.90501094914</t>
+  </si>
+  <si>
+    <t>311.533308886298</t>
+  </si>
+  <si>
+    <t>2214.88913769465</t>
+  </si>
+  <si>
+    <t>1498.98687178076</t>
+  </si>
+  <si>
+    <t>1406.53217051263</t>
+  </si>
+  <si>
+    <t>50.5350992173202</t>
+  </si>
+  <si>
+    <t>1786.15386896783</t>
+  </si>
+  <si>
+    <t>2017 before Irma</t>
+  </si>
+  <si>
+    <t>2017 after Irma</t>
   </si>
   <si>
     <t>Herbivorous Biomass</t>
@@ -629,21 +635,12 @@
   </si>
   <si>
     <t>Piscivorous Biomass</t>
-  </si>
-  <si>
-    <t>2017 before Irma</t>
-  </si>
-  <si>
-    <t>2017 after Irma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,12 +959,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1097,43 +1094,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1179,27 +1139,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1560,11 +1515,12 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -1573,406 +1529,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>202</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2016</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1980,127 +1936,127 @@
       <c r="A23" s="4">
         <v>2018</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2108,127 +2064,127 @@
       <c r="A30" s="4">
         <v>2019</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2236,109 +2192,109 @@
       <c r="A37" s="4">
         <v>2020</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2346,127 +2302,127 @@
       <c r="A43" s="4">
         <v>2023</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="5" t="s">
         <v>198</v>
       </c>
     </row>
